--- a/data/pca/factorExposure/factorExposure_2009-09-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01840701707488007</v>
+        <v>0.01668213981788884</v>
       </c>
       <c r="C2">
-        <v>0.001564798392368121</v>
+        <v>-0.0009267494648176568</v>
       </c>
       <c r="D2">
-        <v>-0.002401110785420057</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009628431549815705</v>
+      </c>
+      <c r="E2">
+        <v>-0.002059018635541023</v>
+      </c>
+      <c r="F2">
+        <v>0.01170811521395669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.0979272138201429</v>
+        <v>0.09405199668552866</v>
       </c>
       <c r="C4">
-        <v>0.02109960858122826</v>
+        <v>-0.01457946003107238</v>
       </c>
       <c r="D4">
-        <v>-0.06183852447659957</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.083920894368598</v>
+      </c>
+      <c r="E4">
+        <v>-0.02834145953393271</v>
+      </c>
+      <c r="F4">
+        <v>-0.03132128370239054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1474674978278589</v>
+        <v>0.1594422905245327</v>
       </c>
       <c r="C6">
-        <v>0.02703327592751745</v>
+        <v>-0.02681478143089778</v>
       </c>
       <c r="D6">
-        <v>0.02437420460059445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02379758778175012</v>
+      </c>
+      <c r="E6">
+        <v>-0.01040910790179271</v>
+      </c>
+      <c r="F6">
+        <v>-0.0444405470025759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06538905082538253</v>
+        <v>0.06366616694110068</v>
       </c>
       <c r="C7">
-        <v>0.003346244327863634</v>
+        <v>0.001668745349716473</v>
       </c>
       <c r="D7">
-        <v>-0.03671960709793959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05266688910457976</v>
+      </c>
+      <c r="E7">
+        <v>-0.01210692171071692</v>
+      </c>
+      <c r="F7">
+        <v>-0.04595452680318313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06530320212343302</v>
+        <v>0.05758609708121667</v>
       </c>
       <c r="C8">
-        <v>-0.009491722110119224</v>
+        <v>0.01320317189952457</v>
       </c>
       <c r="D8">
-        <v>-0.01303847429730797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03231490955929819</v>
+      </c>
+      <c r="E8">
+        <v>-0.01787503578640538</v>
+      </c>
+      <c r="F8">
+        <v>0.02672556679565341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.07546957512962339</v>
+        <v>0.07088859585942403</v>
       </c>
       <c r="C9">
-        <v>0.01752908801222726</v>
+        <v>-0.01023150812009581</v>
       </c>
       <c r="D9">
-        <v>-0.06417893077976801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08730276197507372</v>
+      </c>
+      <c r="E9">
+        <v>-0.02345506601863931</v>
+      </c>
+      <c r="F9">
+        <v>-0.04491696511801165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.07895933606229821</v>
+        <v>0.09118569885948227</v>
       </c>
       <c r="C10">
-        <v>0.01184354296268804</v>
+        <v>-0.02094023004224161</v>
       </c>
       <c r="D10">
-        <v>0.1647486537937581</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1639988211425643</v>
+      </c>
+      <c r="E10">
+        <v>0.03185242460745196</v>
+      </c>
+      <c r="F10">
+        <v>0.05695879919991288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09533765591245201</v>
+        <v>0.08835299988093459</v>
       </c>
       <c r="C11">
-        <v>0.01831823516246459</v>
+        <v>-0.01035891686997527</v>
       </c>
       <c r="D11">
-        <v>-0.09118031219250328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1171925068381092</v>
+      </c>
+      <c r="E11">
+        <v>-0.04575988262565869</v>
+      </c>
+      <c r="F11">
+        <v>-0.02177285027024231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1022199838300158</v>
+        <v>0.09205422080586773</v>
       </c>
       <c r="C12">
-        <v>0.01624160443676375</v>
+        <v>-0.007713846953459883</v>
       </c>
       <c r="D12">
-        <v>-0.09458183785587609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316495878298553</v>
+      </c>
+      <c r="E12">
+        <v>-0.04527251939300971</v>
+      </c>
+      <c r="F12">
+        <v>-0.02933277707790307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04320258906792139</v>
+        <v>0.04132232836948865</v>
       </c>
       <c r="C13">
-        <v>0.006172983728753462</v>
+        <v>-0.002360236514371721</v>
       </c>
       <c r="D13">
-        <v>-0.0295579830667105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0529380932796151</v>
+      </c>
+      <c r="E13">
+        <v>0.004734326408257374</v>
+      </c>
+      <c r="F13">
+        <v>-0.001302434565753071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02049911170899994</v>
+        <v>0.0239983016356383</v>
       </c>
       <c r="C14">
-        <v>0.01533998251320755</v>
+        <v>-0.01381488781144331</v>
       </c>
       <c r="D14">
-        <v>-0.02165653843340626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03344022150640221</v>
+      </c>
+      <c r="E14">
+        <v>-0.01861358404618907</v>
+      </c>
+      <c r="F14">
+        <v>-0.01330134887920282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03613734682108832</v>
+        <v>0.03302941564974231</v>
       </c>
       <c r="C15">
-        <v>0.008046739408991933</v>
+        <v>-0.00468565019560073</v>
       </c>
       <c r="D15">
-        <v>-0.02494419280785858</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04509739098220523</v>
+      </c>
+      <c r="E15">
+        <v>-0.005902316766780813</v>
+      </c>
+      <c r="F15">
+        <v>-0.02532897060192487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08153920755838866</v>
+        <v>0.07439350545286393</v>
       </c>
       <c r="C16">
-        <v>0.009069044140481278</v>
+        <v>-0.0009088302169742884</v>
       </c>
       <c r="D16">
-        <v>-0.09493597281042081</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1277736893780639</v>
+      </c>
+      <c r="E16">
+        <v>-0.05989812488480099</v>
+      </c>
+      <c r="F16">
+        <v>-0.02608635352356711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0007373968828910578</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001883485147803327</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001541161891597701</v>
+      </c>
+      <c r="E17">
+        <v>-0.0009648018282254628</v>
+      </c>
+      <c r="F17">
+        <v>0.002151691518298491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.01676460182604868</v>
+        <v>0.03628208221669742</v>
       </c>
       <c r="C18">
-        <v>-0.003165621520624089</v>
+        <v>0.002951879921063591</v>
       </c>
       <c r="D18">
-        <v>-0.03154202168613068</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01566098839396943</v>
+      </c>
+      <c r="E18">
+        <v>0.008982423092051007</v>
+      </c>
+      <c r="F18">
+        <v>0.007868497167568423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06781648118827492</v>
+        <v>0.06199636025454455</v>
       </c>
       <c r="C20">
-        <v>0.006695130259171443</v>
+        <v>-6.890458003523789e-05</v>
       </c>
       <c r="D20">
-        <v>-0.04584497869998129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07705400011239773</v>
+      </c>
+      <c r="E20">
+        <v>-0.05467649788434236</v>
+      </c>
+      <c r="F20">
+        <v>-0.02891330668819819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04430008102820133</v>
+        <v>0.0406397732596811</v>
       </c>
       <c r="C21">
-        <v>0.01049369826744949</v>
+        <v>-0.006399125509928546</v>
       </c>
       <c r="D21">
-        <v>-0.01891183648498898</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03825578553203821</v>
+      </c>
+      <c r="E21">
+        <v>0.001530970269800124</v>
+      </c>
+      <c r="F21">
+        <v>0.02551867732230105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04079130106608375</v>
+        <v>0.04323274905971872</v>
       </c>
       <c r="C22">
-        <v>0.0007349774396807245</v>
+        <v>-0.0004253077413738999</v>
       </c>
       <c r="D22">
-        <v>0.0102412974088163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004389544154123582</v>
+      </c>
+      <c r="E22">
+        <v>-0.03638521237365903</v>
+      </c>
+      <c r="F22">
+        <v>0.03684369965497232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04075411178691164</v>
+        <v>0.04320851233056135</v>
       </c>
       <c r="C23">
-        <v>0.0007255466602624527</v>
+        <v>-0.0004167912343634857</v>
       </c>
       <c r="D23">
-        <v>0.01022257828449545</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004405372548191639</v>
+      </c>
+      <c r="E23">
+        <v>-0.03656801882457657</v>
+      </c>
+      <c r="F23">
+        <v>0.03680525030054758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08708478887673103</v>
+        <v>0.08011630918194351</v>
       </c>
       <c r="C24">
-        <v>0.009418846931469726</v>
+        <v>-0.001623002666432427</v>
       </c>
       <c r="D24">
-        <v>-0.09983351924971597</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1205164041875216</v>
+      </c>
+      <c r="E24">
+        <v>-0.04795803053765948</v>
+      </c>
+      <c r="F24">
+        <v>-0.02798291991450455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09196897507200885</v>
+        <v>0.08504827240484081</v>
       </c>
       <c r="C25">
-        <v>0.01181661247726687</v>
+        <v>-0.004206145923987313</v>
       </c>
       <c r="D25">
-        <v>-0.08614560864940343</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1100361357255729</v>
+      </c>
+      <c r="E25">
+        <v>-0.03204642998472907</v>
+      </c>
+      <c r="F25">
+        <v>-0.02538752122695557</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05870680781781801</v>
+        <v>0.05902657458025454</v>
       </c>
       <c r="C26">
-        <v>0.01833091800495651</v>
+        <v>-0.01447367212793819</v>
       </c>
       <c r="D26">
-        <v>-0.01521310308524129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0410971757160868</v>
+      </c>
+      <c r="E26">
+        <v>-0.02825523929558217</v>
+      </c>
+      <c r="F26">
+        <v>0.007491722515121999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1268541860713655</v>
+        <v>0.1419387573590913</v>
       </c>
       <c r="C28">
-        <v>0.01000986915620572</v>
+        <v>-0.02236561309324874</v>
       </c>
       <c r="D28">
-        <v>0.2752701239517051</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2617334141205138</v>
+      </c>
+      <c r="E28">
+        <v>0.06695217526025105</v>
+      </c>
+      <c r="F28">
+        <v>-0.003949350008368712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02679715815343681</v>
+        <v>0.02872821822875789</v>
       </c>
       <c r="C29">
-        <v>0.01002794394611003</v>
+        <v>-0.00871092292594783</v>
       </c>
       <c r="D29">
-        <v>-0.01950974937681544</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03133340056853977</v>
+      </c>
+      <c r="E29">
+        <v>-0.01369069063986701</v>
+      </c>
+      <c r="F29">
+        <v>0.01302698622343358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.06917378340556113</v>
+        <v>0.05904284128562435</v>
       </c>
       <c r="C30">
-        <v>0.01060071064729813</v>
+        <v>-0.002582394013073438</v>
       </c>
       <c r="D30">
-        <v>-0.0592421825170641</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08895118933202126</v>
+      </c>
+      <c r="E30">
+        <v>-0.01438060113497531</v>
+      </c>
+      <c r="F30">
+        <v>-0.0779642350815813</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05147598227187089</v>
+        <v>0.0511401174199007</v>
       </c>
       <c r="C31">
-        <v>0.01695502541743469</v>
+        <v>-0.01556039390470652</v>
       </c>
       <c r="D31">
-        <v>-0.01971118034082226</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.024810668691326</v>
+      </c>
+      <c r="E31">
+        <v>-0.02867924109636985</v>
+      </c>
+      <c r="F31">
+        <v>0.001354939292380342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04769317658867742</v>
+        <v>0.0515096230891498</v>
       </c>
       <c r="C32">
-        <v>0.002169919009560549</v>
+        <v>0.00183261088769267</v>
       </c>
       <c r="D32">
-        <v>-0.01966463755026699</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03626662220084072</v>
+      </c>
+      <c r="E32">
+        <v>-0.0344189181931005</v>
+      </c>
+      <c r="F32">
+        <v>-0.003797884315181725</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09570397396272699</v>
+        <v>0.08852642116365521</v>
       </c>
       <c r="C33">
-        <v>0.01421085873827092</v>
+        <v>-0.006466404817379375</v>
       </c>
       <c r="D33">
-        <v>-0.07253552383968363</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1027503375939344</v>
+      </c>
+      <c r="E33">
+        <v>-0.04379949153355737</v>
+      </c>
+      <c r="F33">
+        <v>-0.03784756014525879</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07415204180770044</v>
+        <v>0.06799546011275485</v>
       </c>
       <c r="C34">
-        <v>0.01647269007585902</v>
+        <v>-0.009985205093887983</v>
       </c>
       <c r="D34">
-        <v>-0.07947864595685521</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1099056517090761</v>
+      </c>
+      <c r="E34">
+        <v>-0.03405955260226934</v>
+      </c>
+      <c r="F34">
+        <v>-0.03171988778091778</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.024365018702293</v>
+        <v>0.0254401538079876</v>
       </c>
       <c r="C35">
-        <v>0.002643354425759564</v>
+        <v>-0.002546856103826253</v>
       </c>
       <c r="D35">
-        <v>-0.004896424176332946</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01196591777388011</v>
+      </c>
+      <c r="E35">
+        <v>-0.01239535380922593</v>
+      </c>
+      <c r="F35">
+        <v>-0.0006052568227469473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02775679848898137</v>
+        <v>0.02766460866363145</v>
       </c>
       <c r="C36">
-        <v>0.0081281244300826</v>
+        <v>-0.006797570780944232</v>
       </c>
       <c r="D36">
-        <v>-0.03863722261990565</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04013687822182551</v>
+      </c>
+      <c r="E36">
+        <v>-0.0168039892361305</v>
+      </c>
+      <c r="F36">
+        <v>-0.01491165863138857</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0004086656118405068</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006483059948871355</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002396227870840025</v>
+      </c>
+      <c r="E37">
+        <v>0.0009873348254289688</v>
+      </c>
+      <c r="F37">
+        <v>0.001664029088255223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1206014339126105</v>
+        <v>0.1043639328690648</v>
       </c>
       <c r="C39">
-        <v>0.02495268079368255</v>
+        <v>-0.01556607099853656</v>
       </c>
       <c r="D39">
-        <v>-0.1340621907472399</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1544995290230901</v>
+      </c>
+      <c r="E39">
+        <v>-0.05888331972561675</v>
+      </c>
+      <c r="F39">
+        <v>-0.02821396255244669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03871951615426306</v>
+        <v>0.04145028570697751</v>
       </c>
       <c r="C40">
-        <v>0.009998283403678062</v>
+        <v>-0.007149689903148642</v>
       </c>
       <c r="D40">
-        <v>-0.008068069129878236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03073067745989328</v>
+      </c>
+      <c r="E40">
+        <v>-0.001768761984699615</v>
+      </c>
+      <c r="F40">
+        <v>0.01743676799197282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02484058269844273</v>
+        <v>0.02768808437601517</v>
       </c>
       <c r="C41">
-        <v>0.007215433784550886</v>
+        <v>-0.00679081046192037</v>
       </c>
       <c r="D41">
-        <v>-0.0097858667884161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01107581168112683</v>
+      </c>
+      <c r="E41">
+        <v>-0.01233939356166112</v>
+      </c>
+      <c r="F41">
+        <v>0.00570404662487579</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04241880683483518</v>
+        <v>0.04062653423430032</v>
       </c>
       <c r="C43">
-        <v>0.008440645354434196</v>
+        <v>-0.007001407874884791</v>
       </c>
       <c r="D43">
-        <v>-0.01165395834917204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01912978829578384</v>
+      </c>
+      <c r="E43">
+        <v>-0.02562262790334169</v>
+      </c>
+      <c r="F43">
+        <v>0.01281971318198449</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.08198056788784365</v>
+        <v>0.08040129728829178</v>
       </c>
       <c r="C44">
-        <v>0.02758960112301668</v>
+        <v>-0.01926095514402512</v>
       </c>
       <c r="D44">
-        <v>-0.06761317254887465</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09726838795187807</v>
+      </c>
+      <c r="E44">
+        <v>-0.06075136755111474</v>
+      </c>
+      <c r="F44">
+        <v>-0.1585478545784024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02043424451089829</v>
+        <v>0.02314306457753713</v>
       </c>
       <c r="C46">
-        <v>0.003734966583319891</v>
+        <v>-0.003227670683473819</v>
       </c>
       <c r="D46">
-        <v>-0.007018376859298248</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01360499012984747</v>
+      </c>
+      <c r="E46">
+        <v>-0.02613825540548943</v>
+      </c>
+      <c r="F46">
+        <v>0.006577453032865452</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05438236595525631</v>
+        <v>0.0526562111308795</v>
       </c>
       <c r="C47">
-        <v>0.004682982615847098</v>
+        <v>-0.003689119073460696</v>
       </c>
       <c r="D47">
-        <v>-0.00545561009220688</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01250542296175634</v>
+      </c>
+      <c r="E47">
+        <v>-0.02401312766195531</v>
+      </c>
+      <c r="F47">
+        <v>0.03167322620078821</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.05017767325118568</v>
+        <v>0.05016164416606928</v>
       </c>
       <c r="C48">
-        <v>0.005404957617491284</v>
+        <v>-0.002136643291855425</v>
       </c>
       <c r="D48">
-        <v>-0.04018926652231884</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05106932088439572</v>
+      </c>
+      <c r="E48">
+        <v>0.004655086544059168</v>
+      </c>
+      <c r="F48">
+        <v>-0.008395804307572934</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2000456649462484</v>
+        <v>0.1996374688227058</v>
       </c>
       <c r="C49">
-        <v>0.02013196732848745</v>
+        <v>-0.01892808060935645</v>
       </c>
       <c r="D49">
-        <v>0.01784519733703836</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007365467660897734</v>
+      </c>
+      <c r="E49">
+        <v>-0.02927324964210029</v>
+      </c>
+      <c r="F49">
+        <v>-0.04003978427360102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.05017745403161099</v>
+        <v>0.05150542765065112</v>
       </c>
       <c r="C50">
-        <v>0.01307761497612153</v>
+        <v>-0.01126384095887484</v>
       </c>
       <c r="D50">
-        <v>-0.01876572429458516</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02424731942506263</v>
+      </c>
+      <c r="E50">
+        <v>-0.03002415668261089</v>
+      </c>
+      <c r="F50">
+        <v>-0.01010429967060291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1557510116696267</v>
+        <v>0.1489941199558745</v>
       </c>
       <c r="C52">
-        <v>0.01900507644211387</v>
+        <v>-0.01749610954717246</v>
       </c>
       <c r="D52">
-        <v>-0.04855096929678389</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04169198184777485</v>
+      </c>
+      <c r="E52">
+        <v>-0.02023399841893269</v>
+      </c>
+      <c r="F52">
+        <v>-0.04432114484741532</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1718939700491082</v>
+        <v>0.1711556518989732</v>
       </c>
       <c r="C53">
-        <v>0.01872701611186679</v>
+        <v>-0.01992380681347779</v>
       </c>
       <c r="D53">
-        <v>-0.01639643804686027</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005135709363405939</v>
+      </c>
+      <c r="E53">
+        <v>-0.02872167222673614</v>
+      </c>
+      <c r="F53">
+        <v>-0.07513831295655646</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02005384774844501</v>
+        <v>0.02067325063402248</v>
       </c>
       <c r="C54">
-        <v>0.01264698258553496</v>
+        <v>-0.01125067579387642</v>
       </c>
       <c r="D54">
-        <v>-0.02534191975642925</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03458267773915368</v>
+      </c>
+      <c r="E54">
+        <v>-0.02220213462324434</v>
+      </c>
+      <c r="F54">
+        <v>0.005277754510191832</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1140436347438604</v>
+        <v>0.114634875142933</v>
       </c>
       <c r="C55">
-        <v>0.01720856783096859</v>
+        <v>-0.017520539238169</v>
       </c>
       <c r="D55">
-        <v>-0.01170929592153941</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007496738749986381</v>
+      </c>
+      <c r="E55">
+        <v>-0.02362724681569455</v>
+      </c>
+      <c r="F55">
+        <v>-0.04758858829898219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1788004628705212</v>
+        <v>0.1768780698086327</v>
       </c>
       <c r="C56">
-        <v>0.01630204612644412</v>
+        <v>-0.01785054630406798</v>
       </c>
       <c r="D56">
-        <v>-0.00911596102223616</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002516072383791175</v>
+      </c>
+      <c r="E56">
+        <v>-0.03278865637190458</v>
+      </c>
+      <c r="F56">
+        <v>-0.05586543537602562</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04923103903612781</v>
+        <v>0.04470826140226937</v>
       </c>
       <c r="C58">
-        <v>0.005668324757686792</v>
+        <v>0.0004610831292396716</v>
       </c>
       <c r="D58">
-        <v>-0.05735431912074599</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07077302675658806</v>
+      </c>
+      <c r="E58">
+        <v>-0.03130231885874207</v>
+      </c>
+      <c r="F58">
+        <v>0.03749167473435901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1573569790830574</v>
+        <v>0.167379992162272</v>
       </c>
       <c r="C59">
-        <v>0.01186862644082155</v>
+        <v>-0.02257431230475337</v>
       </c>
       <c r="D59">
-        <v>0.2283890499210089</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2178940103722376</v>
+      </c>
+      <c r="E59">
+        <v>0.04602331055423241</v>
+      </c>
+      <c r="F59">
+        <v>0.03458451198949609</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2377536673925411</v>
+        <v>0.2318428865212596</v>
       </c>
       <c r="C60">
-        <v>0.0004064599914618957</v>
+        <v>0.002073134149675505</v>
       </c>
       <c r="D60">
-        <v>-0.04638383530114901</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0391086228961058</v>
+      </c>
+      <c r="E60">
+        <v>-0.006512445886332</v>
+      </c>
+      <c r="F60">
+        <v>-0.001668174542199988</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.09085600564452294</v>
+        <v>0.08003621296500597</v>
       </c>
       <c r="C61">
-        <v>0.01867531130511613</v>
+        <v>-0.01112644499574191</v>
       </c>
       <c r="D61">
-        <v>-0.09192910222958155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1178286161303134</v>
+      </c>
+      <c r="E61">
+        <v>-0.03866091095651201</v>
+      </c>
+      <c r="F61">
+        <v>-0.01204747381571476</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1715324249441021</v>
+        <v>0.1695083360731397</v>
       </c>
       <c r="C62">
-        <v>0.02053119625010818</v>
+        <v>-0.02084180419837597</v>
       </c>
       <c r="D62">
-        <v>-0.003509370850695715</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.00503278607012533</v>
+      </c>
+      <c r="E62">
+        <v>-0.03295102460685492</v>
+      </c>
+      <c r="F62">
+        <v>-0.03750193261273137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04562336979214153</v>
+        <v>0.04554868792589669</v>
       </c>
       <c r="C63">
-        <v>0.00623011067257882</v>
+        <v>-0.00160378040347287</v>
       </c>
       <c r="D63">
-        <v>-0.04016945276624759</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05904983252212867</v>
+      </c>
+      <c r="E63">
+        <v>-0.02299400225841598</v>
+      </c>
+      <c r="F63">
+        <v>-0.002643709256066583</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1119038525677123</v>
+        <v>0.1109016439345199</v>
       </c>
       <c r="C64">
-        <v>0.01474676825344818</v>
+        <v>-0.01137458135008377</v>
       </c>
       <c r="D64">
-        <v>-0.03026569176161932</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04357044270868089</v>
+      </c>
+      <c r="E64">
+        <v>-0.02240858037281716</v>
+      </c>
+      <c r="F64">
+        <v>-0.02642035659815216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1377772603868989</v>
+        <v>0.1507883165099178</v>
       </c>
       <c r="C65">
-        <v>0.03248580271117178</v>
+        <v>-0.03424111925257442</v>
       </c>
       <c r="D65">
-        <v>0.04814560525458906</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04492601168703429</v>
+      </c>
+      <c r="E65">
+        <v>-0.005375057011880533</v>
+      </c>
+      <c r="F65">
+        <v>-0.03998198870701455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1440919081619506</v>
+        <v>0.1238794820027769</v>
       </c>
       <c r="C66">
-        <v>0.02298527181113788</v>
+        <v>-0.01350757284428298</v>
       </c>
       <c r="D66">
-        <v>-0.1103849108635674</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1424968511129004</v>
+      </c>
+      <c r="E66">
+        <v>-0.06440172686191817</v>
+      </c>
+      <c r="F66">
+        <v>-0.03348765935920287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06479616559731929</v>
+        <v>0.05714547562424424</v>
       </c>
       <c r="C67">
-        <v>0.005462466865797221</v>
+        <v>-0.002757636126361338</v>
       </c>
       <c r="D67">
-        <v>-0.05303962894168623</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05557407561591075</v>
+      </c>
+      <c r="E67">
+        <v>-0.01612822538808952</v>
+      </c>
+      <c r="F67">
+        <v>0.02955929233730503</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.09939584450317915</v>
+        <v>0.1161967534524829</v>
       </c>
       <c r="C68">
-        <v>0.02026806446401191</v>
+        <v>-0.03310332346222741</v>
       </c>
       <c r="D68">
-        <v>0.2745873411637821</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2615285313890199</v>
+      </c>
+      <c r="E68">
+        <v>0.08655281770414852</v>
+      </c>
+      <c r="F68">
+        <v>0.001192710494216242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04117592807994928</v>
+        <v>0.03907700695005192</v>
       </c>
       <c r="C69">
-        <v>0.001512765922078181</v>
+        <v>-0.001215056704692498</v>
       </c>
       <c r="D69">
-        <v>-0.007452396157674442</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008583257256852774</v>
+      </c>
+      <c r="E69">
+        <v>-0.02409075372186456</v>
+      </c>
+      <c r="F69">
+        <v>-0.001466871349479629</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06677925188676577</v>
+        <v>0.06648845043447946</v>
       </c>
       <c r="C70">
-        <v>-0.02366169233210538</v>
+        <v>0.02750201358556234</v>
       </c>
       <c r="D70">
-        <v>0.01451360553706893</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.0246642281817125</v>
+      </c>
+      <c r="E70">
+        <v>0.03175419652069197</v>
+      </c>
+      <c r="F70">
+        <v>0.1799908364488311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1173602047764195</v>
+        <v>0.135991497246809</v>
       </c>
       <c r="C71">
-        <v>0.02378273815968856</v>
+        <v>-0.03742926480083125</v>
       </c>
       <c r="D71">
-        <v>0.2880273041843804</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.272849924668888</v>
+      </c>
+      <c r="E71">
+        <v>0.09692072340070039</v>
+      </c>
+      <c r="F71">
+        <v>-0.004456626244788035</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1380747915137616</v>
+        <v>0.1424874248579381</v>
       </c>
       <c r="C72">
-        <v>0.02701221585189641</v>
+        <v>-0.02729206313306719</v>
       </c>
       <c r="D72">
-        <v>-0.0003179500411289329</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00313667795858909</v>
+      </c>
+      <c r="E72">
+        <v>-0.03699715372622061</v>
+      </c>
+      <c r="F72">
+        <v>-0.03227563385408747</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2056673645318566</v>
+        <v>0.2043687500276524</v>
       </c>
       <c r="C73">
-        <v>0.01580749111037934</v>
+        <v>-0.01306320848007562</v>
       </c>
       <c r="D73">
-        <v>-0.01631959556411736</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01635921599654367</v>
+      </c>
+      <c r="E73">
+        <v>-0.06194467533563472</v>
+      </c>
+      <c r="F73">
+        <v>-0.0407723835060415</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09152855212835818</v>
+        <v>0.09492388285565953</v>
       </c>
       <c r="C74">
-        <v>0.01297888821786761</v>
+        <v>-0.01338228404847302</v>
       </c>
       <c r="D74">
-        <v>-0.02274729335808275</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01687240964098165</v>
+      </c>
+      <c r="E74">
+        <v>-0.04394706357583258</v>
+      </c>
+      <c r="F74">
+        <v>-0.05765064178558612</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.133867168759331</v>
+        <v>0.1272544984823465</v>
       </c>
       <c r="C75">
-        <v>0.02942389245393516</v>
+        <v>-0.02837085820415247</v>
       </c>
       <c r="D75">
-        <v>-0.02996857684894413</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03002252805526232</v>
+      </c>
+      <c r="E75">
+        <v>-0.05734323178378958</v>
+      </c>
+      <c r="F75">
+        <v>-0.02335364505502203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08491742194207177</v>
+        <v>0.08921730926657891</v>
       </c>
       <c r="C77">
-        <v>0.01539804174127656</v>
+        <v>-0.008055406838210677</v>
       </c>
       <c r="D77">
-        <v>-0.09127839420217915</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1130641007927726</v>
+      </c>
+      <c r="E77">
+        <v>-0.04206861245516158</v>
+      </c>
+      <c r="F77">
+        <v>-0.03339601696086247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1064299347725651</v>
+        <v>0.1003230996310586</v>
       </c>
       <c r="C78">
-        <v>0.04723123836509765</v>
+        <v>-0.0392394237221033</v>
       </c>
       <c r="D78">
-        <v>-0.09273203554914461</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1139692626980817</v>
+      </c>
+      <c r="E78">
+        <v>-0.07334794693927224</v>
+      </c>
+      <c r="F78">
+        <v>-0.0474164142359919</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1646812716066531</v>
+        <v>0.1637280556981763</v>
       </c>
       <c r="C79">
-        <v>0.02356657261658941</v>
+        <v>-0.02315317808130795</v>
       </c>
       <c r="D79">
-        <v>-0.01178708788860671</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01411371760376801</v>
+      </c>
+      <c r="E79">
+        <v>-0.04569292314427981</v>
+      </c>
+      <c r="F79">
+        <v>-0.01421801325330799</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08849434063050003</v>
+        <v>0.08186555464073075</v>
       </c>
       <c r="C80">
-        <v>0.002028600194266852</v>
+        <v>0.0009146847605007641</v>
       </c>
       <c r="D80">
-        <v>-0.04193038244019605</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05627438767176967</v>
+      </c>
+      <c r="E80">
+        <v>-0.03487679873593719</v>
+      </c>
+      <c r="F80">
+        <v>0.01947835763105789</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1184730387773548</v>
+        <v>0.118297686779395</v>
       </c>
       <c r="C81">
-        <v>0.03168177562074224</v>
+        <v>-0.03190779097609295</v>
       </c>
       <c r="D81">
-        <v>-0.02791039084838331</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01573884980428079</v>
+      </c>
+      <c r="E81">
+        <v>-0.05680585819093736</v>
+      </c>
+      <c r="F81">
+        <v>-0.0211575660694085</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1648952033594156</v>
+        <v>0.1655624544145665</v>
       </c>
       <c r="C82">
-        <v>0.02405933847232399</v>
+        <v>-0.0251480941315861</v>
       </c>
       <c r="D82">
-        <v>-0.01458469318986397</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004025572504055113</v>
+      </c>
+      <c r="E82">
+        <v>-0.02583900290790158</v>
+      </c>
+      <c r="F82">
+        <v>-0.0833209891635886</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06869176866226982</v>
+        <v>0.05859248236568017</v>
       </c>
       <c r="C83">
-        <v>0.006594227520855025</v>
+        <v>-0.002795996503334546</v>
       </c>
       <c r="D83">
-        <v>-0.03157601964950414</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05053287944231354</v>
+      </c>
+      <c r="E83">
+        <v>-0.003087642794713599</v>
+      </c>
+      <c r="F83">
+        <v>0.02932927962902198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06714910515091332</v>
+        <v>0.05995526369624953</v>
       </c>
       <c r="C84">
-        <v>0.01525210969276483</v>
+        <v>-0.01142996297976574</v>
       </c>
       <c r="D84">
-        <v>-0.05055375534496353</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06290183909422127</v>
+      </c>
+      <c r="E84">
+        <v>-0.007132103775434169</v>
+      </c>
+      <c r="F84">
+        <v>-0.00537485950941246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1374590597689275</v>
+        <v>0.1354799346854793</v>
       </c>
       <c r="C85">
-        <v>0.02817005305687073</v>
+        <v>-0.02836902726831016</v>
       </c>
       <c r="D85">
-        <v>-0.01577699090017167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009282796934073164</v>
+      </c>
+      <c r="E85">
+        <v>-0.03610052828341456</v>
+      </c>
+      <c r="F85">
+        <v>-0.04797238283025757</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1057067162172851</v>
+        <v>0.09480762536849133</v>
       </c>
       <c r="C86">
-        <v>-0.001701112590301064</v>
+        <v>0.005987792177801839</v>
       </c>
       <c r="D86">
-        <v>0.01346424437132631</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04675928299576899</v>
+      </c>
+      <c r="E86">
+        <v>-0.2399799001289058</v>
+      </c>
+      <c r="F86">
+        <v>0.9034345317794366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1014200232311387</v>
+        <v>0.09456431705985956</v>
       </c>
       <c r="C87">
-        <v>0.0294501836225506</v>
+        <v>-0.01935247764411512</v>
       </c>
       <c r="D87">
-        <v>-0.05975512558647653</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09344487988353224</v>
+      </c>
+      <c r="E87">
+        <v>0.05437900046944699</v>
+      </c>
+      <c r="F87">
+        <v>-0.04494116114407248</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06124867383935744</v>
+        <v>0.06041221471271235</v>
       </c>
       <c r="C88">
-        <v>0.005294978299713899</v>
+        <v>-0.002178789525789374</v>
       </c>
       <c r="D88">
-        <v>-0.05383614561320575</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0496923376645768</v>
+      </c>
+      <c r="E88">
+        <v>-0.02392702592443895</v>
+      </c>
+      <c r="F88">
+        <v>-0.01519468166289848</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1128288410654461</v>
+        <v>0.1283802061101715</v>
       </c>
       <c r="C89">
-        <v>0.001818715710252877</v>
+        <v>-0.01322501022811809</v>
       </c>
       <c r="D89">
-        <v>0.2666331029776352</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2456041934103751</v>
+      </c>
+      <c r="E89">
+        <v>0.08854997539250971</v>
+      </c>
+      <c r="F89">
+        <v>0.01405405275377425</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1278615143749547</v>
+        <v>0.1508403105147797</v>
       </c>
       <c r="C90">
-        <v>0.02052667209054784</v>
+        <v>-0.03423634374113844</v>
       </c>
       <c r="D90">
-        <v>0.2774567234777431</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2712020081843354</v>
+      </c>
+      <c r="E90">
+        <v>0.1133598353466391</v>
+      </c>
+      <c r="F90">
+        <v>0.01228902194311833</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1192536976529673</v>
+        <v>0.1214343777328528</v>
       </c>
       <c r="C91">
-        <v>0.01871004436478254</v>
+        <v>-0.02013426445711844</v>
       </c>
       <c r="D91">
-        <v>0.006715927242032641</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01567559548787287</v>
+      </c>
+      <c r="E91">
+        <v>-0.05541904321312559</v>
+      </c>
+      <c r="F91">
+        <v>-0.001358427992245515</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1333196299639515</v>
+        <v>0.147262416790974</v>
       </c>
       <c r="C92">
-        <v>0.009972426824379708</v>
+        <v>-0.02469530128051219</v>
       </c>
       <c r="D92">
-        <v>0.3143006510711718</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2911306670357205</v>
+      </c>
+      <c r="E92">
+        <v>0.1005163180434232</v>
+      </c>
+      <c r="F92">
+        <v>0.01799228396778451</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.131548550403884</v>
+        <v>0.1508911986370127</v>
       </c>
       <c r="C93">
-        <v>0.01595327770507447</v>
+        <v>-0.02915959448219714</v>
       </c>
       <c r="D93">
-        <v>0.2730774941642258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2675121061686144</v>
+      </c>
+      <c r="E93">
+        <v>0.07703796165370891</v>
+      </c>
+      <c r="F93">
+        <v>0.003190755714750877</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1347927806334752</v>
+        <v>0.1283554231203553</v>
       </c>
       <c r="C94">
-        <v>0.02663793290570882</v>
+        <v>-0.02484034336739934</v>
       </c>
       <c r="D94">
-        <v>-0.04418108897713001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04138746961240366</v>
+      </c>
+      <c r="E94">
+        <v>-0.05707041652368942</v>
+      </c>
+      <c r="F94">
+        <v>-0.03653884813316544</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1298485050547938</v>
+        <v>0.1269383349999</v>
       </c>
       <c r="C95">
-        <v>0.01102551403610447</v>
+        <v>-0.003381611817191986</v>
       </c>
       <c r="D95">
-        <v>-0.06521556084975547</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09497364481622213</v>
+      </c>
+      <c r="E95">
+        <v>-0.05015682403081846</v>
+      </c>
+      <c r="F95">
+        <v>0.009173424978266507</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1157893999126016</v>
+        <v>0.1099135176820998</v>
       </c>
       <c r="C96">
-        <v>-0.9875008332833054</v>
+        <v>0.9870200970388179</v>
       </c>
       <c r="D96">
-        <v>0.01006389005310843</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05146066453589945</v>
+      </c>
+      <c r="E96">
+        <v>-0.05236665852694471</v>
+      </c>
+      <c r="F96">
+        <v>-0.0426913523370786</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1911873479797209</v>
+        <v>0.1909626349995944</v>
       </c>
       <c r="C97">
-        <v>-0.006829236266840735</v>
+        <v>0.006708597629710961</v>
       </c>
       <c r="D97">
-        <v>0.01586454128795878</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01953987988344967</v>
+      </c>
+      <c r="E97">
+        <v>-0.02279884481154919</v>
+      </c>
+      <c r="F97">
+        <v>0.09135494912353531</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1986217488648685</v>
+        <v>0.2061294294799172</v>
       </c>
       <c r="C98">
-        <v>0.01021459242901033</v>
+        <v>-0.007154316068225227</v>
       </c>
       <c r="D98">
-        <v>-0.01611181340570539</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0131078957127349</v>
+      </c>
+      <c r="E98">
+        <v>0.075709391642498</v>
+      </c>
+      <c r="F98">
+        <v>0.09115526367556501</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.0569298797075468</v>
+        <v>0.05478766244199328</v>
       </c>
       <c r="C99">
-        <v>-0.001967514723235805</v>
+        <v>0.0044802297900409</v>
       </c>
       <c r="D99">
-        <v>-0.02276498733518312</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03922229622172465</v>
+      </c>
+      <c r="E99">
+        <v>-0.02169570148338384</v>
+      </c>
+      <c r="F99">
+        <v>-0.002980400847116249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1444229006979428</v>
+        <v>0.1283368605216473</v>
       </c>
       <c r="C100">
-        <v>-0.03705703354909771</v>
+        <v>0.05307064506608131</v>
       </c>
       <c r="D100">
-        <v>-0.4305631095880812</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3457365860562853</v>
+      </c>
+      <c r="E100">
+        <v>0.8843969788121399</v>
+      </c>
+      <c r="F100">
+        <v>0.1667307662594724</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02662189978819343</v>
+        <v>0.02866687472083513</v>
       </c>
       <c r="C101">
-        <v>0.009971871763740715</v>
+        <v>-0.008728033324371358</v>
       </c>
       <c r="D101">
-        <v>-0.01901858784603398</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03098419729992217</v>
+      </c>
+      <c r="E101">
+        <v>-0.01312899745958593</v>
+      </c>
+      <c r="F101">
+        <v>0.01424013799142624</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
